--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCDE/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.825200000000001</v>
+        <v>8.913500000000006</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.954599999999997</v>
+        <v>4.976699999999997</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.0192</v>
+        <v>-13.9926</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.7312</v>
+        <v>-14.57119999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,13 +703,13 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>7.713499999999994</v>
+        <v>7.277499999999996</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.660400000000001</v>
+        <v>-8.492100000000001</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.406499999999994</v>
+        <v>-8.354799999999992</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.22580000000001</v>
+        <v>-12.38610000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.47690000000001</v>
+        <v>-12.58860000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.35050000000001</v>
+        <v>-12.37410000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.022700000000001</v>
+        <v>5.598600000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.100800000000002</v>
+        <v>5.154700000000006</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.765699999999994</v>
+        <v>7.525499999999994</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.87580000000001</v>
+        <v>-11.71960000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.49770000000001</v>
+        <v>17.5899</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.539299999999999</v>
+        <v>-8.521299999999995</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.912999999999997</v>
+        <v>8.996699999999992</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-12.18519999999999</v>
+        <v>-12.52979999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.27920000000001</v>
+        <v>17.12590000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.72379999999999</v>
+        <v>-13.62219999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.459200000000001</v>
+        <v>-8.644399999999997</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.51500000000001</v>
+        <v>17.50610000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.6536</v>
+        <v>-13.98179999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.2325</v>
+        <v>-8.044799999999999</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.00459999999999</v>
+        <v>-12.286</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.358399999999998</v>
+        <v>5.093699999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.934699999999996</v>
+        <v>5.136099999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.944</v>
+        <v>5.935600000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.55870000000001</v>
+        <v>-11.29830000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.58489999999999</v>
+        <v>-11.27179999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.57150000000001</v>
+        <v>17.68550000000001</v>
       </c>
     </row>
     <row r="71">
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.44200000000001</v>
+        <v>17.53710000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.53890000000001</v>
+        <v>-11.46290000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.8989</v>
+        <v>-12.7842</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.4493</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="88">
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.5045</v>
+        <v>-11.1996</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.41780000000001</v>
+        <v>18.32790000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.225299999999997</v>
+        <v>-8.340399999999999</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.2102</v>
+        <v>-11.6608</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.679299999999994</v>
+        <v>-8.469599999999993</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.813299999999995</v>
+        <v>5.3</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.82640000000001</v>
+        <v>16.79800000000001</v>
       </c>
     </row>
     <row r="102">
